--- a/data/umsatz_ergebnis.xlsx
+++ b/data/umsatz_ergebnis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conny\Desktop\Computerlinguistik\Semester 8\Tabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713DFA39-B4DA-474E-87B8-1EB4D1050359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263D73A7-FE11-4E76-AA7B-B397D935B247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2F68C51D-CCC7-44E3-A77B-79C4056E9987}"/>
   </bookViews>
@@ -70,7 +70,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,15 +106,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -419,7 +431,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,16 +460,16 @@
       <c r="A2">
         <v>2010</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>26459000000</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>21466000000</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>1480000000</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>1131000000</v>
       </c>
     </row>
@@ -465,13 +477,13 @@
       <c r="A3">
         <v>2011</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>28734000000</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>23779000000</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>734000000</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -482,16 +494,16 @@
       <c r="A4">
         <v>2012</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>30135000000</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>24793000000</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>1357000000</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>990000000</v>
       </c>
     </row>
@@ -499,16 +511,16 @@
       <c r="A5">
         <v>2013</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>30028000000</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>24565000000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>891000000</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>313000000</v>
       </c>
     </row>
@@ -516,16 +528,16 @@
       <c r="A6">
         <v>2014</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>30011000000</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>24388000000</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>459000000</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>55000000</v>
       </c>
     </row>
@@ -533,16 +545,16 @@
       <c r="A7">
         <v>2015</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>32056000000</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>25322000000</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>1676000000</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>1698000000</v>
       </c>
     </row>
@@ -550,16 +562,16 @@
       <c r="A8">
         <v>2016</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>31660000000</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>24661000000</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>2275000000</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>1776000000</v>
       </c>
     </row>
@@ -567,16 +579,16 @@
       <c r="A9">
         <v>2017</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>35579000000</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>28399000000</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>3310000000</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>2364000000</v>
       </c>
     </row>
@@ -584,16 +596,16 @@
       <c r="A10">
         <v>2018</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>35844000000</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>2810335844000000</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>297435844000000</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>216335844000000</v>
       </c>
     </row>
@@ -601,16 +613,16 @@
       <c r="A11">
         <v>2019</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>36424000000</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>28136000000</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>1857000000</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>1213000000</v>
       </c>
     </row>
@@ -618,10 +630,10 @@
       <c r="A12">
         <v>2020</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>13589000000</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>9078000000</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -635,16 +647,16 @@
       <c r="A13">
         <v>2021</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>16811000000</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>11876000000</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -652,10 +664,10 @@
       <c r="A14">
         <v>2022</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>32770000000</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>25846000000</v>
       </c>
       <c r="D14">
@@ -669,10 +681,10 @@
       <c r="A15">
         <v>2023</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>35442000000</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>29926000000</v>
       </c>
       <c r="D15">

--- a/data/umsatz_ergebnis.xlsx
+++ b/data/umsatz_ergebnis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conny\Desktop\Computerlinguistik\Semester 8\Tabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263D73A7-FE11-4E76-AA7B-B397D935B247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE66E00-A723-4EC6-A01D-B5BE25B52943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2F68C51D-CCC7-44E3-A77B-79C4056E9987}"/>
   </bookViews>
@@ -36,21 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>Umsatzerlöse</t>
-  </si>
-  <si>
-    <t>Verkehrserlöse</t>
-  </si>
-  <si>
-    <t>EBIT</t>
-  </si>
-  <si>
-    <t>Konzernergebnis</t>
-  </si>
-  <si>
-    <t>Jahr</t>
-  </si>
-  <si>
     <t>– 13000000</t>
   </si>
   <si>
@@ -64,6 +49,21 @@
   </si>
   <si>
     <t>– 2316000000</t>
+  </si>
+  <si>
+    <t>jahr</t>
+  </si>
+  <si>
+    <t>umsatzerloese</t>
+  </si>
+  <si>
+    <t>verkehrserloese</t>
+  </si>
+  <si>
+    <t>ebit</t>
+  </si>
+  <si>
+    <t>konzernergebnis</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,19 +441,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -487,7 +487,7 @@
         <v>734000000</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -637,10 +637,10 @@
         <v>9078000000</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -654,10 +654,10 @@
         <v>11876000000</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">

--- a/data/umsatz_ergebnis.xlsx
+++ b/data/umsatz_ergebnis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conny\Desktop\Computerlinguistik\Semester 8\Tabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE66E00-A723-4EC6-A01D-B5BE25B52943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FAE04F-969C-47C9-A921-7FE4E678B0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2F68C51D-CCC7-44E3-A77B-79C4056E9987}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>– 13000000</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>konzernergebnis</t>
+  </si>
+  <si>
+    <t>aggregate_id</t>
   </si>
 </sst>
 </file>
@@ -428,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46024280-82C3-4251-8848-B9228F8E711B}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,7 +442,7 @@
     <col min="2" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -455,8 +458,11 @@
       <c r="E1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -472,8 +478,11 @@
       <c r="E2">
         <v>1131000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -489,8 +498,11 @@
       <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -506,8 +518,11 @@
       <c r="E4">
         <v>990000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -523,8 +538,11 @@
       <c r="E5">
         <v>313000000</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -540,8 +558,11 @@
       <c r="E6">
         <v>55000000</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -557,8 +578,11 @@
       <c r="E7">
         <v>1698000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -574,8 +598,11 @@
       <c r="E8">
         <v>1776000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -591,8 +618,11 @@
       <c r="E9">
         <v>2364000000</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -608,8 +638,11 @@
       <c r="E10">
         <v>216335844000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -625,8 +658,11 @@
       <c r="E11">
         <v>1213000000</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -642,8 +678,11 @@
       <c r="E12" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -659,8 +698,11 @@
       <c r="E13" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -676,8 +718,11 @@
       <c r="E14">
         <v>791000000</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -692,6 +737,9 @@
       </c>
       <c r="E15">
         <v>1673000000</v>
+      </c>
+      <c r="F15">
+        <v>2023</v>
       </c>
     </row>
   </sheetData>

--- a/data/umsatz_ergebnis.xlsx
+++ b/data/umsatz_ergebnis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conny\Desktop\Computerlinguistik\Semester 8\Tabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FAE04F-969C-47C9-A921-7FE4E678B0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44D31FE-8E36-42C6-97C7-46A502D3056F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2F68C51D-CCC7-44E3-A77B-79C4056E9987}"/>
+    <workbookView xWindow="3276" yWindow="3276" windowWidth="17280" windowHeight="8880" xr2:uid="{2F68C51D-CCC7-44E3-A77B-79C4056E9987}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,13 +630,13 @@
         <v>35844000000</v>
       </c>
       <c r="C10">
-        <v>2810335844000000</v>
+        <v>28103000000</v>
       </c>
       <c r="D10">
-        <v>297435844000000</v>
+        <v>2974000000</v>
       </c>
       <c r="E10">
-        <v>216335844000000</v>
+        <v>2163000000</v>
       </c>
       <c r="F10">
         <v>2018</v>
